--- a/agentpos.xlsx
+++ b/agentpos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,538 +443,546 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-6.799985870718956</v>
+        <v>-6.717215329408646</v>
       </c>
       <c r="B2" t="n">
-        <v>6.705700218677521</v>
+        <v>6.729724377393723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-7.073551669716835</v>
+        <v>-6.992697685956955</v>
       </c>
       <c r="B3" t="n">
-        <v>6.410371661186218</v>
+        <v>7.024214833974838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-7.346386507153511</v>
+        <v>-7.231894001364708</v>
       </c>
       <c r="B4" t="n">
-        <v>6.117273181676865</v>
+        <v>6.726050138473511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.612330719828606</v>
+        <v>-7.516450479626656</v>
       </c>
       <c r="B5" t="n">
-        <v>5.844976961612701</v>
+        <v>6.428623825311661</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.797170102596283</v>
+        <v>-7.626827172935009</v>
       </c>
       <c r="B6" t="n">
-        <v>5.561982184648514</v>
+        <v>6.179057344794273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-8.090243637561798</v>
+        <v>-7.907261572778225</v>
       </c>
       <c r="B7" t="n">
-        <v>5.351483345031738</v>
+        <v>5.916448727250099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.344374090433121</v>
+        <v>-8.168852053582668</v>
       </c>
       <c r="B8" t="n">
-        <v>5.061872780323029</v>
+        <v>5.638680890202522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.136980205774307</v>
+        <v>-8.409969158470631</v>
       </c>
       <c r="B9" t="n">
-        <v>4.800541967153549</v>
+        <v>5.350914493203163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.988244086503983</v>
+        <v>-8.556073091924191</v>
       </c>
       <c r="B10" t="n">
-        <v>4.520146548748016</v>
+        <v>5.054416432976723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-7.787360563874245</v>
+        <v>-8.344437666237354</v>
       </c>
       <c r="B11" t="n">
-        <v>4.22383576631546</v>
+        <v>4.789844438433647</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-7.548274412751198</v>
+        <v>-8.063578017055988</v>
       </c>
       <c r="B12" t="n">
-        <v>3.956658333539963</v>
+        <v>4.541761755943298</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.326951533555984</v>
+        <v>-7.833412788808346</v>
       </c>
       <c r="B13" t="n">
-        <v>3.71858261525631</v>
+        <v>4.347240746021271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.044267445802689</v>
+        <v>-7.57729034870863</v>
       </c>
       <c r="B14" t="n">
-        <v>3.421852841973305</v>
+        <v>4.050496339797974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.7917160987854</v>
+        <v>-7.382559321820736</v>
       </c>
       <c r="B15" t="n">
-        <v>3.136161640286446</v>
+        <v>3.762538224458694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.626447960734367</v>
+        <v>-7.1490533426404</v>
       </c>
       <c r="B16" t="n">
-        <v>2.856033816933632</v>
+        <v>3.476841032505035</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.408694848418236</v>
+        <v>-6.911163277924061</v>
       </c>
       <c r="B17" t="n">
-        <v>2.5961824208498</v>
+        <v>3.227461829781532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.433809570968151</v>
+        <v>-6.628283597528934</v>
       </c>
       <c r="B18" t="n">
-        <v>2.301446035504341</v>
+        <v>2.96313963830471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.169665329158306</v>
+        <v>-6.430315069854259</v>
       </c>
       <c r="B19" t="n">
-        <v>2.030645534396172</v>
+        <v>2.709058508276939</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.931202627718449</v>
+        <v>-6.156670950353146</v>
       </c>
       <c r="B20" t="n">
-        <v>1.756468281149864</v>
+        <v>2.433946445584297</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.648694850504398</v>
+        <v>-5.878724776208401</v>
       </c>
       <c r="B21" t="n">
-        <v>1.484042331576347</v>
+        <v>2.203209638595581</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-5.364506848156452</v>
+        <v>-5.586802862584591</v>
       </c>
       <c r="B22" t="n">
-        <v>1.206671133637428</v>
+        <v>1.916472375392914</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.088245578110218</v>
+        <v>-5.31146877259016</v>
       </c>
       <c r="B23" t="n">
-        <v>0.934991255402565</v>
+        <v>1.627527058124542</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.811430580914021</v>
+        <v>-5.027968280017376</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7143737226724625</v>
+        <v>1.343599617481232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.611991591751575</v>
+        <v>-4.750165723264217</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5425441861152649</v>
+        <v>1.04863440990448</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.327431447803974</v>
+        <v>-4.508687503635883</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3374515473842621</v>
+        <v>1.088972117751837</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.064955182373524</v>
+        <v>-4.226949967443943</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1900512874126434</v>
+        <v>0.9498962126672268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-3.812666453421116</v>
+        <v>-3.930652685463428</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4164005517959595</v>
+        <v>0.6966629885137081</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-3.57365208119154</v>
+        <v>-3.630920685827732</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2779203802347183</v>
+        <v>0.6453650593757629</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-3.292939595878124</v>
+        <v>-3.401292614638805</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3901501595973969</v>
+        <v>0.4861551374197006</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-3.002775989472866</v>
+        <v>-3.119516722857952</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2678125649690628</v>
+        <v>0.4739452563226223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-2.709705166518688</v>
+        <v>-2.836949579417706</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00948922336101532</v>
+        <v>0.2030950747430325</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2.466814748942852</v>
+        <v>-2.583110027015209</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1605131179094315</v>
+        <v>-0.07236510887742043</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-2.209416799247265</v>
+        <v>-2.302797965705395</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4524506479501724</v>
+        <v>-0.3141654916107655</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1.946529738605022</v>
+        <v>-2.02399056404829</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.6837026327848434</v>
+        <v>-0.5190675295889378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.664582841098309</v>
+        <v>-1.740606091916561</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9689885228872299</v>
+        <v>-0.7825159467756748</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1.367509447038174</v>
+        <v>-1.44811936467886</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.238312676548958</v>
+        <v>-1.027538705617189</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.096394740045071</v>
+        <v>-1.159067831933498</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.365910440683365</v>
+        <v>-1.280706394463778</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.8115941509604454</v>
+        <v>-0.9255661442875862</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.274424254894257</v>
+        <v>-1.296866597607732</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.5197243914008141</v>
+        <v>-0.6738725677132607</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.474565044045448</v>
+        <v>-1.473617332056165</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.2238829359412193</v>
+        <v>-0.3989641144871712</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.661690905690193</v>
+        <v>-1.682371946051717</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0686294212937355</v>
+        <v>-0.122717596590519</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.851594194769859</v>
+        <v>-1.88768863864243</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.3201406076550484</v>
+        <v>0.1531354412436485</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.142461940646172</v>
+        <v>-1.972845951095223</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.607946939766407</v>
+        <v>0.4393923804163933</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.428073987364769</v>
+        <v>-2.12789730168879</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9065507128834724</v>
+        <v>0.6789322569966316</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.713941290974617</v>
+        <v>-2.418247828260064</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.202131904661655</v>
+        <v>0.9693266823887825</v>
       </c>
       <c r="B46" t="n">
-        <v>-3.009442493319511</v>
+        <v>-2.716675588861108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.489826805889606</v>
+        <v>1.244991697371006</v>
       </c>
       <c r="B47" t="n">
-        <v>-3.165868014097214</v>
+        <v>-3.004611054435372</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.771220751106739</v>
+        <v>1.541403688490391</v>
       </c>
       <c r="B48" t="n">
-        <v>-3.410862281918526</v>
+        <v>-3.253945464268327</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.062096901237965</v>
+        <v>1.800624318420887</v>
       </c>
       <c r="B49" t="n">
-        <v>-3.685181960463524</v>
+        <v>-3.177256884053349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.340870685875416</v>
+        <v>2.073841579258442</v>
       </c>
       <c r="B50" t="n">
-        <v>-3.962785974144936</v>
+        <v>-3.460231037810445</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.632878996431828</v>
+        <v>2.361279852688313</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.017310906201601</v>
+        <v>-3.756610484793782</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.899610556662083</v>
+        <v>2.65353149920702</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.252965200692415</v>
+        <v>-3.959652038291097</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.193875856697559</v>
+        <v>2.940817780792713</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.431160409003496</v>
+        <v>-4.184532569721341</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.487756676971912</v>
+        <v>3.23868814855814</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.621884632855654</v>
+        <v>-4.44261865504086</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.617770574986935</v>
+        <v>3.530303157866001</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.898031998425722</v>
+        <v>-4.72658465988934</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.911593489348888</v>
+        <v>3.808139570057392</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.087234321981668</v>
+        <v>-4.997273879125714</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.126351319253445</v>
+        <v>4.100301213562489</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.378046695142984</v>
+        <v>-5.272142516449094</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.414818488061428</v>
+        <v>4.3877769485116</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.637436751276255</v>
+        <v>-5.566110836341977</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.697130762040615</v>
+        <v>4.643983580172062</v>
       </c>
       <c r="B59" t="n">
-        <v>-5.912642274051905</v>
+        <v>-5.773829074576497</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.932104326784611</v>
+        <v>4.914880968630314</v>
       </c>
       <c r="B60" t="n">
-        <v>-6.138544861227274</v>
+        <v>-6.055199624970555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.21990043669939</v>
+        <v>5.150194399058819</v>
       </c>
       <c r="B61" t="n">
-        <v>-6.381352204829454</v>
+        <v>-6.340131880715489</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.517786450684071</v>
+        <v>5.428564392030239</v>
       </c>
       <c r="B62" t="n">
-        <v>-6.663003344088793</v>
+        <v>-6.621546210721135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.809630610048771</v>
+        <v>5.723121128976345</v>
       </c>
       <c r="B63" t="n">
-        <v>-6.928405094891787</v>
+        <v>-6.777999537065625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.069290138781071</v>
+        <v>6.010212205350399</v>
       </c>
       <c r="B64" t="n">
-        <v>-7.177424881607294</v>
+        <v>-6.884390452876687</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.359883673489094</v>
+        <v>6.25748323649168</v>
       </c>
       <c r="B65" t="n">
-        <v>-7.422578040510416</v>
+        <v>-7.174651632085443</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.649440802633762</v>
+        <v>6.520955823361874</v>
       </c>
       <c r="B66" t="n">
-        <v>-7.641092289239168</v>
+        <v>-7.404804224148393</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.933647610247135</v>
+        <v>6.773489885032177</v>
       </c>
       <c r="B67" t="n">
-        <v>-7.907720047980547</v>
+        <v>-7.632335821166635</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.227915950119495</v>
+        <v>7.06585755199194</v>
       </c>
       <c r="B68" t="n">
-        <v>-8.137496966868639</v>
+        <v>-7.788480708375573</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7.362012349069118</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-7.686933593824506</v>
       </c>
     </row>
   </sheetData>

--- a/agentpos.xlsx
+++ b/agentpos.xlsx
@@ -443,546 +443,546 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-6.717215329408646</v>
+        <v>-6.752148926258087</v>
       </c>
       <c r="B2" t="n">
-        <v>6.729724377393723</v>
+        <v>6.798622041940689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6.992697685956955</v>
+        <v>-6.961407393217087</v>
       </c>
       <c r="B3" t="n">
-        <v>7.024214833974838</v>
+        <v>6.502549022436142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-7.231894001364708</v>
+        <v>-7.24986407160759</v>
       </c>
       <c r="B4" t="n">
-        <v>6.726050138473511</v>
+        <v>6.260327145457268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.516450479626656</v>
+        <v>-7.548834621906281</v>
       </c>
       <c r="B5" t="n">
-        <v>6.428623825311661</v>
+        <v>6.006690815091133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.626827172935009</v>
+        <v>-7.819010376930237</v>
       </c>
       <c r="B6" t="n">
-        <v>6.179057344794273</v>
+        <v>5.723421141505241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-7.907261572778225</v>
+        <v>-8.077459514141083</v>
       </c>
       <c r="B7" t="n">
-        <v>5.916448727250099</v>
+        <v>5.481968879699707</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.168852053582668</v>
+        <v>-8.348732560873032</v>
       </c>
       <c r="B8" t="n">
-        <v>5.638680890202522</v>
+        <v>5.239937111735344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.409969158470631</v>
+        <v>-8.541849955916405</v>
       </c>
       <c r="B9" t="n">
-        <v>5.350914493203163</v>
+        <v>4.951170310378075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-8.556073091924191</v>
+        <v>-8.334750935435295</v>
       </c>
       <c r="B10" t="n">
-        <v>5.054416432976723</v>
+        <v>4.727209150791168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-8.344437666237354</v>
+        <v>-8.148926630616188</v>
       </c>
       <c r="B11" t="n">
-        <v>4.789844438433647</v>
+        <v>4.445217937231064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-8.063578017055988</v>
+        <v>-7.871825233101845</v>
       </c>
       <c r="B12" t="n">
-        <v>4.541761755943298</v>
+        <v>4.155231684446335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.833412788808346</v>
+        <v>-7.669549152255058</v>
       </c>
       <c r="B13" t="n">
-        <v>4.347240746021271</v>
+        <v>3.86003789305687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.57729034870863</v>
+        <v>-7.395383760333061</v>
       </c>
       <c r="B14" t="n">
-        <v>4.050496339797974</v>
+        <v>3.573012351989746</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-7.382559321820736</v>
+        <v>-7.106442973017693</v>
       </c>
       <c r="B15" t="n">
-        <v>3.762538224458694</v>
+        <v>3.284101903438568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-7.1490533426404</v>
+        <v>-7.10655008257163</v>
       </c>
       <c r="B16" t="n">
-        <v>3.476841032505035</v>
+        <v>3.027036964893341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.911163277924061</v>
+        <v>-6.813082292683248</v>
       </c>
       <c r="B17" t="n">
-        <v>3.227461829781532</v>
+        <v>2.742478579282761</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.628283597528934</v>
+        <v>-6.529878661043767</v>
       </c>
       <c r="B18" t="n">
-        <v>2.96313963830471</v>
+        <v>2.585611134767532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.430315069854259</v>
+        <v>-6.257063731558446</v>
       </c>
       <c r="B19" t="n">
-        <v>2.709058508276939</v>
+        <v>2.324933260679245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.156670950353146</v>
+        <v>-6.112602844841604</v>
       </c>
       <c r="B20" t="n">
-        <v>2.433946445584297</v>
+        <v>2.033460110425949</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.878724776208401</v>
+        <v>-5.829127773649816</v>
       </c>
       <c r="B21" t="n">
-        <v>2.203209638595581</v>
+        <v>1.742638796567917</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-5.586802862584591</v>
+        <v>-5.550051018602971</v>
       </c>
       <c r="B22" t="n">
-        <v>1.916472375392914</v>
+        <v>1.447996437549591</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.31146877259016</v>
+        <v>-5.27483262122405</v>
       </c>
       <c r="B23" t="n">
-        <v>1.627527058124542</v>
+        <v>1.191994398832321</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-5.027968280017376</v>
+        <v>-4.989691391594533</v>
       </c>
       <c r="B24" t="n">
-        <v>1.343599617481232</v>
+        <v>0.9007608294487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.750165723264217</v>
+        <v>-4.699701741345052</v>
       </c>
       <c r="B25" t="n">
-        <v>1.04863440990448</v>
+        <v>0.6813828349113464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.508687503635883</v>
+        <v>-4.433549419052724</v>
       </c>
       <c r="B26" t="n">
-        <v>1.088972117751837</v>
+        <v>0.6002219617366791</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.226949967443943</v>
+        <v>-4.138439223177556</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9498962126672268</v>
+        <v>0.6629272550344467</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-3.930652685463428</v>
+        <v>-3.857201144106511</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6966629885137081</v>
+        <v>0.6307515799999237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-3.630920685827732</v>
+        <v>-3.566795274622564</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6453650593757629</v>
+        <v>0.4555935263633728</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-3.401292614638805</v>
+        <v>-3.292058601982717</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4861551374197006</v>
+        <v>0.5425753146409988</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-3.119516722857952</v>
+        <v>-3.004062607891683</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4739452563226223</v>
+        <v>0.4072544276714325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-2.836949579417706</v>
+        <v>-2.751531913883809</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2030950747430325</v>
+        <v>0.1691683679819107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2.583110027015209</v>
+        <v>-2.453379765160207</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.07236510887742043</v>
+        <v>-0.02049097418785095</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-2.302797965705395</v>
+        <v>-2.178039148457174</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.3141654916107655</v>
+        <v>-0.2774465084075928</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-2.02399056404829</v>
+        <v>-1.914223715670232</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.5190675295889378</v>
+        <v>-0.5041405111551285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.740606091916561</v>
+        <v>-1.62406791747344</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.7825159467756748</v>
+        <v>-0.7826974838972092</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1.44811936467886</v>
+        <v>-1.326857700951223</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.027538705617189</v>
+        <v>-1.031051382422447</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.159067831933498</v>
+        <v>-1.035518154509191</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.280706394463778</v>
+        <v>-1.303044065833092</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.9255661442875862</v>
+        <v>-0.747555598623876</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.296866597607732</v>
+        <v>-1.526491910219193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.6738725677132607</v>
+        <v>-0.5231472104860586</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.473617332056165</v>
+        <v>-1.404170051217079</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.3989641144871712</v>
+        <v>-0.2668433040453237</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.682371946051717</v>
+        <v>-1.667432144284248</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.122717596590519</v>
+        <v>-0.004408940680150408</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.88768863864243</v>
+        <v>-1.823230475187302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1531354412436485</v>
+        <v>0.2169729769157129</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.972845951095223</v>
+        <v>-2.102761536836624</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4393923804163933</v>
+        <v>0.5018482506202417</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.12789730168879</v>
+        <v>-2.393498033285141</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6789322569966316</v>
+        <v>0.7991093397067743</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.418247828260064</v>
+        <v>-2.59940068423748</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9693266823887825</v>
+        <v>1.086616903536196</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.716675588861108</v>
+        <v>-2.83659715950489</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.244991697371006</v>
+        <v>1.382597178213473</v>
       </c>
       <c r="B47" t="n">
-        <v>-3.004611054435372</v>
+        <v>-3.098029062151909</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.541403688490391</v>
+        <v>1.591586336486216</v>
       </c>
       <c r="B48" t="n">
-        <v>-3.253945464268327</v>
+        <v>-3.383487269282341</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.800624318420887</v>
+        <v>1.879997625939723</v>
       </c>
       <c r="B49" t="n">
-        <v>-3.177256884053349</v>
+        <v>-3.662618592381477</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.073841579258442</v>
+        <v>2.093133971087809</v>
       </c>
       <c r="B50" t="n">
-        <v>-3.460231037810445</v>
+        <v>-3.945518895983696</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.361279852688313</v>
+        <v>2.390878304831858</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.756610484793782</v>
+        <v>-4.239782080054283</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.65353149920702</v>
+        <v>2.687632903449412</v>
       </c>
       <c r="B52" t="n">
-        <v>-3.959652038291097</v>
+        <v>-4.323718205094337</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.940817780792713</v>
+        <v>2.981864944093104</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.184532569721341</v>
+        <v>-4.611244842410088</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.23868814855814</v>
+        <v>3.264760568730708</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.44261865504086</v>
+        <v>-4.878205999732018</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.530303157866001</v>
+        <v>3.561031028621073</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.72658465988934</v>
+        <v>-5.070022270083427</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.808139570057392</v>
+        <v>3.858219727866526</v>
       </c>
       <c r="B56" t="n">
-        <v>-4.997273879125714</v>
+        <v>-5.361400559544563</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.100301213562489</v>
+        <v>4.155324801795359</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.272142516449094</v>
+        <v>-5.632797375321388</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.3877769485116</v>
+        <v>4.450656190507289</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.566110836341977</v>
+        <v>-5.906300887465477</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.643983580172062</v>
+        <v>4.740906879298564</v>
       </c>
       <c r="B59" t="n">
-        <v>-5.773829074576497</v>
+        <v>-6.178634837269783</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.914880968630314</v>
+        <v>5.038050577037211</v>
       </c>
       <c r="B60" t="n">
-        <v>-6.055199624970555</v>
+        <v>-6.462253645062447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.150194399058819</v>
+        <v>5.31065841018426</v>
       </c>
       <c r="B61" t="n">
-        <v>-6.340131880715489</v>
+        <v>-6.738394185900688</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.428564392030239</v>
+        <v>5.601628527037974</v>
       </c>
       <c r="B62" t="n">
-        <v>-6.621546210721135</v>
+        <v>-6.98621378839016</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.723121128976345</v>
+        <v>5.887347951524134</v>
       </c>
       <c r="B63" t="n">
-        <v>-6.777999537065625</v>
+        <v>-7.258482500910759</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.010212205350399</v>
+        <v>6.183288887135859</v>
       </c>
       <c r="B64" t="n">
-        <v>-6.884390452876687</v>
+        <v>-7.399259924888611</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.25748323649168</v>
+        <v>6.462374433867808</v>
       </c>
       <c r="B65" t="n">
-        <v>-7.174651632085443</v>
+        <v>-7.550688654184341</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.520955823361874</v>
+        <v>6.754869267337199</v>
       </c>
       <c r="B66" t="n">
-        <v>-7.404804224148393</v>
+        <v>-7.44496838003397</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.773489885032177</v>
+        <v>7.028814360492106</v>
       </c>
       <c r="B67" t="n">
-        <v>-7.632335821166635</v>
+        <v>-7.692597351968288</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.06585755199194</v>
+        <v>7.207451269023295</v>
       </c>
       <c r="B68" t="n">
-        <v>-7.788480708375573</v>
+        <v>-7.889922879636288</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.362012349069118</v>
+        <v>7.477498725049372</v>
       </c>
       <c r="B69" t="n">
-        <v>-7.686933593824506</v>
+        <v>-8.042319692671299</v>
       </c>
     </row>
   </sheetData>

--- a/agentpos.xlsx
+++ b/agentpos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,546 +443,522 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-6.752148926258087</v>
+        <v>-6.707310974597931</v>
       </c>
       <c r="B2" t="n">
-        <v>6.798622041940689</v>
+        <v>6.711852848529816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6.961407393217087</v>
+        <v>-6.984724342823029</v>
       </c>
       <c r="B3" t="n">
-        <v>6.502549022436142</v>
+        <v>6.413427352905273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-7.24986407160759</v>
+        <v>-7.219371825456619</v>
       </c>
       <c r="B4" t="n">
-        <v>6.260327145457268</v>
+        <v>6.116852760314941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.548834621906281</v>
+        <v>-7.513302624225616</v>
       </c>
       <c r="B5" t="n">
-        <v>6.006690815091133</v>
+        <v>5.875276058912277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.819010376930237</v>
+        <v>-7.630182638764381</v>
       </c>
       <c r="B6" t="n">
-        <v>5.723421141505241</v>
+        <v>5.686424419283867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-8.077459514141083</v>
+        <v>-7.854119524359703</v>
       </c>
       <c r="B7" t="n">
-        <v>5.481968879699707</v>
+        <v>5.398731932044029</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.348732560873032</v>
+        <v>-8.147194012999535</v>
       </c>
       <c r="B8" t="n">
-        <v>5.239937111735344</v>
+        <v>5.165309011936188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.541849955916405</v>
+        <v>-8.29978059232235</v>
       </c>
       <c r="B9" t="n">
-        <v>4.951170310378075</v>
+        <v>4.873495519161224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-8.334750935435295</v>
+        <v>-8.024437889456749</v>
       </c>
       <c r="B10" t="n">
-        <v>4.727209150791168</v>
+        <v>4.590647846460342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-8.148926630616188</v>
+        <v>-7.777766138315201</v>
       </c>
       <c r="B11" t="n">
-        <v>4.445217937231064</v>
+        <v>4.326772928237915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-7.871825233101845</v>
+        <v>-7.490173310041428</v>
       </c>
       <c r="B12" t="n">
-        <v>4.155231684446335</v>
+        <v>4.086640328168869</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.669549152255058</v>
+        <v>-7.257640764117241</v>
       </c>
       <c r="B13" t="n">
-        <v>3.86003789305687</v>
+        <v>3.796507149934769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.395383760333061</v>
+        <v>-7.07056300342083</v>
       </c>
       <c r="B14" t="n">
-        <v>3.573012351989746</v>
+        <v>3.616462856531143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-7.106442973017693</v>
+        <v>-6.834666758775711</v>
       </c>
       <c r="B15" t="n">
-        <v>3.284101903438568</v>
+        <v>3.3235944211483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-7.10655008257163</v>
+        <v>-6.612865298986435</v>
       </c>
       <c r="B16" t="n">
-        <v>3.027036964893341</v>
+        <v>3.170690476894379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.813082292683248</v>
+        <v>-6.368838205933571</v>
       </c>
       <c r="B17" t="n">
-        <v>2.742478579282761</v>
+        <v>2.908322095870972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.529878661043767</v>
+        <v>-6.117665126919746</v>
       </c>
       <c r="B18" t="n">
-        <v>2.585611134767532</v>
+        <v>2.61726301908493</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.257063731558446</v>
+        <v>-5.843927815556526</v>
       </c>
       <c r="B19" t="n">
-        <v>2.324933260679245</v>
+        <v>2.33284267783165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.112602844841604</v>
+        <v>-5.599294543266296</v>
       </c>
       <c r="B20" t="n">
-        <v>2.033460110425949</v>
+        <v>2.109520018100739</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.829127773649816</v>
+        <v>-5.321805357933044</v>
       </c>
       <c r="B21" t="n">
-        <v>1.742638796567917</v>
+        <v>1.863074377179146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-5.550051018602971</v>
+        <v>-5.040496200323105</v>
       </c>
       <c r="B22" t="n">
-        <v>1.447996437549591</v>
+        <v>1.58438079059124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.27483262122405</v>
+        <v>-4.800863340497017</v>
       </c>
       <c r="B23" t="n">
-        <v>1.191994398832321</v>
+        <v>1.289117947220802</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.989691391594533</v>
+        <v>-4.543140068650246</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9007608294487</v>
+        <v>1.216798901557922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.699701741345052</v>
+        <v>-4.267985537648201</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6813828349113464</v>
+        <v>0.9468890428543091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.433549419052724</v>
+        <v>-4.006917133927345</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6002219617366791</v>
+        <v>0.7748742699623108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.138439223177556</v>
+        <v>-3.725015297532082</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6629272550344467</v>
+        <v>0.5307062417268753</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-3.857201144106511</v>
+        <v>-3.42795304954052</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6307515799999237</v>
+        <v>0.6460124105215073</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-3.566795274622564</v>
+        <v>-3.147114679217339</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4555935263633728</v>
+        <v>0.5480709001421928</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-3.292058601982717</v>
+        <v>-2.867577061057091</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5425753146409988</v>
+        <v>0.2634736523032188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-3.004062607891683</v>
+        <v>-2.578695520758629</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4072544276714325</v>
+        <v>-0.02710769325494766</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-2.751531913883809</v>
+        <v>-2.283631429076195</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1691683679819107</v>
+        <v>-0.2176541015505791</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2.453379765160207</v>
+        <v>-1.990034803748131</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.02049097418785095</v>
+        <v>-0.4717440232634544</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-2.178039148457174</v>
+        <v>-1.701258584856987</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2774465084075928</v>
+        <v>-0.7153344079852104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1.914223715670232</v>
+        <v>-1.413964197039604</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.5041405111551285</v>
+        <v>-1.007026307284832</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.62406791747344</v>
+        <v>-1.141016557812691</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.7826974838972092</v>
+        <v>-1.019550543278456</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1.326857700951223</v>
+        <v>-0.8442523032426834</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.031051382422447</v>
+        <v>-1.118945259600878</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.035518154509191</v>
+        <v>-0.5540862828493118</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.303044065833092</v>
+        <v>-1.305918294936419</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.747555598623876</v>
+        <v>-0.2682200223207474</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.526491910219193</v>
+        <v>-1.483893562108278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.5231472104860586</v>
+        <v>0.0220518559217453</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.404170051217079</v>
+        <v>-1.776424396783113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.2668433040453237</v>
+        <v>0.2762980312108994</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.667432144284248</v>
+        <v>-1.995938751846552</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.004408940680150408</v>
+        <v>0.5470917075872421</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.823230475187302</v>
+        <v>-2.241320539265871</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2169729769157129</v>
+        <v>0.845188245177269</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.102761536836624</v>
+        <v>-2.462291870266199</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5018482506202417</v>
+        <v>1.143739208579063</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.393498033285141</v>
+        <v>-2.730119470506907</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7991093397067743</v>
+        <v>1.39154177904129</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.59940068423748</v>
+        <v>-2.967135418206453</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.086616903536196</v>
+        <v>1.687822163105011</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.83659715950489</v>
+        <v>-3.224933404475451</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.382597178213473</v>
+        <v>1.977926462888718</v>
       </c>
       <c r="B47" t="n">
-        <v>-3.098029062151909</v>
+        <v>-3.411115158349276</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.591586336486216</v>
+        <v>2.260917037725449</v>
       </c>
       <c r="B48" t="n">
-        <v>-3.383487269282341</v>
+        <v>-3.701169539242983</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.879997625939723</v>
+        <v>2.535905331373215</v>
       </c>
       <c r="B49" t="n">
-        <v>-3.662618592381477</v>
+        <v>-3.967672873288393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.093133971087809</v>
+        <v>2.809783905744553</v>
       </c>
       <c r="B50" t="n">
-        <v>-3.945518895983696</v>
+        <v>-4.230877239257097</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.390878304831858</v>
+        <v>3.103906005620956</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.239782080054283</v>
+        <v>-4.474454287439585</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.687632903449412</v>
+        <v>3.39238041639328</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.323718205094337</v>
+        <v>-4.756123963743448</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.981864944093104</v>
+        <v>3.676829397678375</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.611244842410088</v>
+        <v>-5.021146956831217</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.264760568730708</v>
+        <v>3.970601379871368</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.878205999732018</v>
+        <v>-5.291502121835947</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.561031028621073</v>
+        <v>4.247167766094208</v>
       </c>
       <c r="B55" t="n">
-        <v>-5.070022270083427</v>
+        <v>-5.585599038749933</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.858219727866526</v>
+        <v>4.497910022735596</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.361400559544563</v>
+        <v>-5.866266641765833</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.155324801795359</v>
+        <v>4.796048521995544</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.632797375321388</v>
+        <v>-6.10094502940774</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.450656190507289</v>
+        <v>5.089320689439774</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.906300887465477</v>
+        <v>-6.397946897894144</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.740906879298564</v>
+        <v>5.373666673898697</v>
       </c>
       <c r="B59" t="n">
-        <v>-6.178634837269783</v>
+        <v>-6.679260674864054</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.038050577037211</v>
+        <v>5.663472443819046</v>
       </c>
       <c r="B60" t="n">
-        <v>-6.462253645062447</v>
+        <v>-6.976679835468531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.31065841018426</v>
+        <v>5.961210131645203</v>
       </c>
       <c r="B61" t="n">
-        <v>-6.738394185900688</v>
+        <v>-7.155003163963556</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.601628527037974</v>
+        <v>6.248528480529785</v>
       </c>
       <c r="B62" t="n">
-        <v>-6.98621378839016</v>
+        <v>-7.439491841942072</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.887347951524134</v>
+        <v>6.509726166725159</v>
       </c>
       <c r="B63" t="n">
-        <v>-7.258482500910759</v>
+        <v>-7.717811588197947</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.183288887135859</v>
+        <v>6.694860532879829</v>
       </c>
       <c r="B64" t="n">
-        <v>-7.399259924888611</v>
+        <v>-7.859740380197763</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.462374433867808</v>
+        <v>6.979029133915901</v>
       </c>
       <c r="B65" t="n">
-        <v>-7.550688654184341</v>
+        <v>-8.014687690883875</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.754869267337199</v>
+        <v>7.27663891017437</v>
       </c>
       <c r="B66" t="n">
-        <v>-7.44496838003397</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7.028814360492106</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-7.692597351968288</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>7.207451269023295</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-7.889922879636288</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>7.477498725049372</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-8.042319692671299</v>
+        <v>-8.102241430431604</v>
       </c>
     </row>
   </sheetData>

--- a/agentpos.xlsx
+++ b/agentpos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,522 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-6.707310974597931</v>
+        <v>-6.758133441209793</v>
       </c>
       <c r="B2" t="n">
-        <v>6.711852848529816</v>
+        <v>6.711845904588699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6.984724342823029</v>
+        <v>-6.889973968267441</v>
       </c>
       <c r="B3" t="n">
-        <v>6.413427352905273</v>
+        <v>6.432878851890564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-7.219371825456619</v>
+        <v>-7.17403307557106</v>
       </c>
       <c r="B4" t="n">
-        <v>6.116852760314941</v>
+        <v>6.139681160449982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.513302624225616</v>
+        <v>-7.455172270536423</v>
       </c>
       <c r="B5" t="n">
-        <v>5.875276058912277</v>
+        <v>5.949270859360695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.630182638764381</v>
+        <v>-7.574209034442902</v>
       </c>
       <c r="B6" t="n">
-        <v>5.686424419283867</v>
+        <v>5.653695657849312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-7.854119524359703</v>
+        <v>-7.688602961599827</v>
       </c>
       <c r="B7" t="n">
-        <v>5.398731932044029</v>
+        <v>5.503914877772331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.147194012999535</v>
+        <v>-7.979123093187809</v>
       </c>
       <c r="B8" t="n">
-        <v>5.165309011936188</v>
+        <v>5.298926755785942</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.29978059232235</v>
+        <v>-8.207742400467396</v>
       </c>
       <c r="B9" t="n">
-        <v>4.873495519161224</v>
+        <v>5.043874755501747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-8.024437889456749</v>
+        <v>-8.060947380959988</v>
       </c>
       <c r="B10" t="n">
-        <v>4.590647846460342</v>
+        <v>4.758282884955406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-7.777766138315201</v>
+        <v>-7.771994106471539</v>
       </c>
       <c r="B11" t="n">
-        <v>4.326772928237915</v>
+        <v>4.509924426674843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-7.490173310041428</v>
+        <v>-7.527994550764561</v>
       </c>
       <c r="B12" t="n">
-        <v>4.086640328168869</v>
+        <v>4.233586117625237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.257640764117241</v>
+        <v>-7.255454279482365</v>
       </c>
       <c r="B13" t="n">
-        <v>3.796507149934769</v>
+        <v>3.982568457722664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.07056300342083</v>
+        <v>-7.075165770947933</v>
       </c>
       <c r="B14" t="n">
-        <v>3.616462856531143</v>
+        <v>3.716726079583168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.834666758775711</v>
+        <v>-7.004798620939255</v>
       </c>
       <c r="B15" t="n">
-        <v>3.3235944211483</v>
+        <v>3.434353545308113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.612865298986435</v>
+        <v>-6.712180703878403</v>
       </c>
       <c r="B16" t="n">
-        <v>3.170690476894379</v>
+        <v>3.157299026846886</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.368838205933571</v>
+        <v>-6.467911139130592</v>
       </c>
       <c r="B17" t="n">
-        <v>2.908322095870972</v>
+        <v>2.867135390639305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.117665126919746</v>
+        <v>-6.238594055175781</v>
       </c>
       <c r="B18" t="n">
-        <v>2.61726301908493</v>
+        <v>2.569371744990349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.843927815556526</v>
+        <v>-6.101641952991486</v>
       </c>
       <c r="B19" t="n">
-        <v>2.33284267783165</v>
+        <v>2.322160720825195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.599294543266296</v>
+        <v>-5.982097037136555</v>
       </c>
       <c r="B20" t="n">
-        <v>2.109520018100739</v>
+        <v>2.035366207361221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.321805357933044</v>
+        <v>-5.702067293226719</v>
       </c>
       <c r="B21" t="n">
-        <v>1.863074377179146</v>
+        <v>1.835737839341164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-5.040496200323105</v>
+        <v>-5.404346086084843</v>
       </c>
       <c r="B22" t="n">
-        <v>1.58438079059124</v>
+        <v>1.604647949337959</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-4.800863340497017</v>
+        <v>-5.116961397230625</v>
       </c>
       <c r="B23" t="n">
-        <v>1.289117947220802</v>
+        <v>1.331206396222115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.543140068650246</v>
+        <v>-4.839787162840366</v>
       </c>
       <c r="B24" t="n">
-        <v>1.216798901557922</v>
+        <v>1.078393146395683</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.267985537648201</v>
+        <v>-4.54268566519022</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9468890428543091</v>
+        <v>0.8039036840200424</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.006917133927345</v>
+        <v>-4.271212734282017</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7748742699623108</v>
+        <v>0.7632827162742615</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-3.725015297532082</v>
+        <v>-3.976112522184849</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5307062417268753</v>
+        <v>0.5541790872812271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-3.42795304954052</v>
+        <v>-3.693923063576221</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6460124105215073</v>
+        <v>0.5024983547627926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-3.147114679217339</v>
+        <v>-3.395941860973835</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5480709001421928</v>
+        <v>0.4169990755617619</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-2.867577061057091</v>
+        <v>-3.104156710207462</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2634736523032188</v>
+        <v>0.3135456778109074</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.578695520758629</v>
+        <v>-2.809021003544331</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02710769325494766</v>
+        <v>0.06637946143746376</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-2.283631429076195</v>
+        <v>-2.5098572447896</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.2176541015505791</v>
+        <v>-0.1578162126243114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-1.990034803748131</v>
+        <v>-2.255384989082813</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4717440232634544</v>
+        <v>-0.3733413480222225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-1.701258584856987</v>
+        <v>-1.97919125109911</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.7153344079852104</v>
+        <v>-0.6454390250146389</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1.413964197039604</v>
+        <v>-1.699015982449055</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.007026307284832</v>
+        <v>-0.9005718491971493</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.141016557812691</v>
+        <v>-1.425481356680393</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.019550543278456</v>
+        <v>-1.171202208846807</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.8442523032426834</v>
+        <v>-1.206002555787563</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.118945259600878</v>
+        <v>-1.285776954144239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.5540862828493118</v>
+        <v>-0.9158884510397911</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.305918294936419</v>
+        <v>-1.434066575020552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.2682200223207474</v>
+        <v>-0.6306416317820549</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.483893562108278</v>
+        <v>-1.285364609211683</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.0220518559217453</v>
+        <v>-0.3890401795506477</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.776424396783113</v>
+        <v>-1.47133394703269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2762980312108994</v>
+        <v>-0.0947154238820076</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.995938751846552</v>
+        <v>-1.746999707072973</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5470917075872421</v>
+        <v>0.201639287173748</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.241320539265871</v>
+        <v>-2.012346532195807</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.845188245177269</v>
+        <v>0.4712663218379021</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.462291870266199</v>
+        <v>-2.273637052625418</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.143739208579063</v>
+        <v>0.7643201872706413</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.730119470506907</v>
+        <v>-2.56459116563201</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.39154177904129</v>
+        <v>1.05177303403616</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.967135418206453</v>
+        <v>-2.860200401395559</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.687822163105011</v>
+        <v>1.348924122750759</v>
       </c>
       <c r="B46" t="n">
-        <v>-3.224933404475451</v>
+        <v>-3.156724717468023</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.977926462888718</v>
+        <v>1.638257317245007</v>
       </c>
       <c r="B47" t="n">
-        <v>-3.411115158349276</v>
+        <v>-3.304778542369604</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.260917037725449</v>
+        <v>1.931631527841091</v>
       </c>
       <c r="B48" t="n">
-        <v>-3.701169539242983</v>
+        <v>-3.558448430150747</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.535905331373215</v>
+        <v>2.21887918561697</v>
       </c>
       <c r="B49" t="n">
-        <v>-3.967672873288393</v>
+        <v>-3.85389506444335</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.809783905744553</v>
+        <v>2.507543675601482</v>
       </c>
       <c r="B50" t="n">
-        <v>-4.230877239257097</v>
+        <v>-4.132981833070517</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.103906005620956</v>
+        <v>2.802342586219311</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.474454287439585</v>
+        <v>-4.271977063268423</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.39238041639328</v>
+        <v>3.1010906919837</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.756123963743448</v>
+        <v>-4.558661665767431</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.676829397678375</v>
+        <v>3.398040287196636</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.021146956831217</v>
+        <v>-4.832887228578329</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.970601379871368</v>
+        <v>3.696463041007519</v>
       </c>
       <c r="B54" t="n">
-        <v>-5.291502121835947</v>
+        <v>-5.114784356206656</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.247167766094208</v>
+        <v>3.990138344466686</v>
       </c>
       <c r="B55" t="n">
-        <v>-5.585599038749933</v>
+        <v>-5.410826500505209</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.497910022735596</v>
+        <v>4.287413738667965</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.866266641765833</v>
+        <v>-5.700690951198339</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.796048521995544</v>
+        <v>4.565388821065426</v>
       </c>
       <c r="B57" t="n">
-        <v>-6.10094502940774</v>
+        <v>-5.970015879720449</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.089320689439774</v>
+        <v>4.853601805865765</v>
       </c>
       <c r="B58" t="n">
-        <v>-6.397946897894144</v>
+        <v>-5.926327485591173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.373666673898697</v>
+        <v>5.139746449887753</v>
       </c>
       <c r="B59" t="n">
-        <v>-6.679260674864054</v>
+        <v>-6.159132871776819</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.663472443819046</v>
+        <v>5.435320757329464</v>
       </c>
       <c r="B60" t="n">
-        <v>-6.976679835468531</v>
+        <v>-6.439666155725718</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.961210131645203</v>
+        <v>5.733872763812542</v>
       </c>
       <c r="B61" t="n">
-        <v>-7.155003163963556</v>
+        <v>-6.722900483757257</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6.248528480529785</v>
+        <v>6.018222980201244</v>
       </c>
       <c r="B62" t="n">
-        <v>-7.439491841942072</v>
+        <v>-7.010793570429087</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6.509726166725159</v>
+        <v>6.236209399998188</v>
       </c>
       <c r="B63" t="n">
-        <v>-7.717811588197947</v>
+        <v>-7.136951807886362</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.694860532879829</v>
+        <v>6.526951260864735</v>
       </c>
       <c r="B64" t="n">
-        <v>-7.859740380197763</v>
+        <v>-7.432541523128748</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.979029133915901</v>
+        <v>6.809380002319813</v>
       </c>
       <c r="B65" t="n">
-        <v>-8.014687690883875</v>
+        <v>-7.716927204281092</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.27663891017437</v>
+        <v>7.101353831589222</v>
       </c>
       <c r="B66" t="n">
-        <v>-8.102241430431604</v>
+        <v>-7.982389155775309</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7.400528289377689</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-7.876430559903383</v>
       </c>
     </row>
   </sheetData>

--- a/agentpos.xlsx
+++ b/agentpos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,530 +443,226 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-6.758133441209793</v>
+        <v>1.05139971151948</v>
       </c>
       <c r="B2" t="n">
-        <v>6.711845904588699</v>
+        <v>8.795807048678398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6.889973968267441</v>
+        <v>1.351399723440409</v>
       </c>
       <c r="B3" t="n">
-        <v>6.432878851890564</v>
+        <v>8.730723902583122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-7.17403307557106</v>
+        <v>1.601864162832499</v>
       </c>
       <c r="B4" t="n">
-        <v>6.139681160449982</v>
+        <v>8.436304286122322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.455172270536423</v>
+        <v>1.826793719083071</v>
       </c>
       <c r="B5" t="n">
-        <v>5.949270859360695</v>
+        <v>8.139798894524574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.574209034442902</v>
+        <v>2.121020037680864</v>
       </c>
       <c r="B6" t="n">
-        <v>5.653695657849312</v>
+        <v>8.173374965786934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-7.688602961599827</v>
+        <v>2.361119661480188</v>
       </c>
       <c r="B7" t="n">
-        <v>5.503914877772331</v>
+        <v>7.874024704098701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-7.979123093187809</v>
+        <v>2.635920468717813</v>
       </c>
       <c r="B8" t="n">
-        <v>5.298926755785942</v>
+        <v>7.577951923012733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.207742400467396</v>
+        <v>2.921765360981226</v>
       </c>
       <c r="B9" t="n">
-        <v>5.043874755501747</v>
+        <v>7.286091193556786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-8.060947380959988</v>
+        <v>3.027930561453104</v>
       </c>
       <c r="B10" t="n">
-        <v>4.758282884955406</v>
+        <v>6.986432567238808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-7.771994106471539</v>
+        <v>3.295577052980661</v>
       </c>
       <c r="B11" t="n">
-        <v>4.509924426674843</v>
+        <v>6.687089160084724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-7.527994550764561</v>
+        <v>3.557901207357645</v>
       </c>
       <c r="B12" t="n">
-        <v>4.233586117625237</v>
+        <v>6.388386413455009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.255454279482365</v>
+        <v>3.77413210645318</v>
       </c>
       <c r="B13" t="n">
-        <v>3.982568457722664</v>
+        <v>6.08893646299839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-7.075165770947933</v>
+        <v>3.987280610948801</v>
       </c>
       <c r="B14" t="n">
-        <v>3.716726079583168</v>
+        <v>5.796353504061699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-7.004798620939255</v>
+        <v>4.276829663664103</v>
       </c>
       <c r="B15" t="n">
-        <v>3.434353545308113</v>
+        <v>5.497735604643822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.712180703878403</v>
+        <v>4.563079122453928</v>
       </c>
       <c r="B16" t="n">
-        <v>3.157299026846886</v>
+        <v>5.200409188866615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.467911139130592</v>
+        <v>4.817232105880976</v>
       </c>
       <c r="B17" t="n">
-        <v>2.867135390639305</v>
+        <v>4.900652512907982</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.238594055175781</v>
+        <v>5.117200586944818</v>
       </c>
       <c r="B18" t="n">
-        <v>2.569371744990349</v>
+        <v>4.600664809346199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.101641952991486</v>
+        <v>5.417193446308374</v>
       </c>
       <c r="B19" t="n">
-        <v>2.322160720825195</v>
+        <v>4.300751641392708</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.982097037136555</v>
+        <v>5.717191848903894</v>
       </c>
       <c r="B20" t="n">
-        <v>2.035366207361221</v>
+        <v>4.000759676098824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.702067293226719</v>
+        <v>6.016805563122034</v>
       </c>
       <c r="B21" t="n">
-        <v>1.835737839341164</v>
+        <v>3.70299069583416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-5.404346086084843</v>
+        <v>6.301162276417017</v>
       </c>
       <c r="B22" t="n">
-        <v>1.604647949337959</v>
+        <v>3.408438190817833</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.116961397230625</v>
+        <v>6.57927093282342</v>
       </c>
       <c r="B23" t="n">
-        <v>1.331206396222115</v>
+        <v>3.312187008559704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.839787162840366</v>
+        <v>6.876370254904032</v>
       </c>
       <c r="B24" t="n">
-        <v>1.078393146395683</v>
+        <v>3.013223819434643</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.54268566519022</v>
+        <v>7.17336792126298</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8039036840200424</v>
+        <v>2.713911913335323</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.271212734282017</v>
+        <v>7.473112408071756</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7632827162742615</v>
+        <v>2.413975141942501</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-3.976112522184849</v>
+        <v>7.772620085626841</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5541790872812271</v>
+        <v>2.114342443645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-3.693923063576221</v>
+        <v>8.072062317281961</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5024983547627926</v>
+        <v>1.819394998252392</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-3.395941860973835</v>
+        <v>8.371772978454828</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4169990755617619</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>-3.104156710207462</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.3135456778109074</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>-2.809021003544331</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.06637946143746376</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>-2.5098572447896</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.1578162126243114</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>-2.255384989082813</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.3733413480222225</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>-1.97919125109911</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.6454390250146389</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>-1.699015982449055</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.9005718491971493</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>-1.425481356680393</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-1.171202208846807</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>-1.206002555787563</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-1.285776954144239</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-0.9158884510397911</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-1.434066575020552</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>-0.6306416317820549</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-1.285364609211683</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>-0.3890401795506477</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-1.47133394703269</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>-0.0947154238820076</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-1.746999707072973</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.201639287173748</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-2.012346532195807</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>0.4712663218379021</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-2.273637052625418</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0.7643201872706413</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-2.56459116563201</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1.05177303403616</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-2.860200401395559</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1.348924122750759</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-3.156724717468023</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1.638257317245007</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-3.304778542369604</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1.931631527841091</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-3.558448430150747</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2.21887918561697</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-3.85389506444335</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>2.507543675601482</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-4.132981833070517</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2.802342586219311</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-4.271977063268423</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3.1010906919837</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-4.558661665767431</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3.398040287196636</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-4.832887228578329</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3.696463041007519</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-5.114784356206656</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3.990138344466686</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-5.410826500505209</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>4.287413738667965</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-5.700690951198339</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>4.565388821065426</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-5.970015879720449</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>4.853601805865765</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-5.926327485591173</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>5.139746449887753</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-6.159132871776819</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>5.435320757329464</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-6.439666155725718</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5.733872763812542</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-6.722900483757257</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>6.018222980201244</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-7.010793570429087</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>6.236209399998188</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-7.136951807886362</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>6.526951260864735</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-7.432541523128748</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>6.809380002319813</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-7.716927204281092</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>7.101353831589222</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-7.982389155775309</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7.400528289377689</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-7.876430559903383</v>
+        <v>1.527363531291485</v>
       </c>
     </row>
   </sheetData>

--- a/agentpos.xlsx
+++ b/agentpos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,226 +443,1018 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.05139971151948</v>
+        <v>-7.126729771494865</v>
       </c>
       <c r="B2" t="n">
-        <v>8.795807048678398</v>
+        <v>6.711140632629395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.351399723440409</v>
+        <v>-7.420799568295479</v>
       </c>
       <c r="B3" t="n">
-        <v>8.730723902583122</v>
+        <v>6.843861773610115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.601864162832499</v>
+        <v>-7.469032786786556</v>
       </c>
       <c r="B4" t="n">
-        <v>8.436304286122322</v>
+        <v>6.857784513384104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.826793719083071</v>
+        <v>-7.750645779073238</v>
       </c>
       <c r="B5" t="n">
-        <v>8.139798894524574</v>
+        <v>6.957946818321943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.121020037680864</v>
+        <v>-8.049360685050488</v>
       </c>
       <c r="B6" t="n">
-        <v>8.173374965786934</v>
+        <v>7.103062134236097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.361119661480188</v>
+        <v>-8.341073237359524</v>
       </c>
       <c r="B7" t="n">
-        <v>7.874024704098701</v>
+        <v>6.990137372165918</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.635920468717813</v>
+        <v>-8.618995122611523</v>
       </c>
       <c r="B8" t="n">
-        <v>7.577951923012733</v>
+        <v>6.890509147197008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.921765360981226</v>
+        <v>-8.894253335893154</v>
       </c>
       <c r="B9" t="n">
-        <v>7.286091193556786</v>
+        <v>6.716093350201845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.027930561453104</v>
+        <v>-9.165777884423733</v>
       </c>
       <c r="B10" t="n">
-        <v>6.986432567238808</v>
+        <v>6.553744334727526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.295577052980661</v>
+        <v>-9.460264943540096</v>
       </c>
       <c r="B11" t="n">
-        <v>6.687089160084724</v>
+        <v>6.327322218567133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.557901207357645</v>
+        <v>-9.758926831185818</v>
       </c>
       <c r="B12" t="n">
-        <v>6.388386413455009</v>
+        <v>6.052948419004679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.77413210645318</v>
+        <v>-10</v>
       </c>
       <c r="B13" t="n">
-        <v>6.08893646299839</v>
+        <v>5.777511689811945</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.987280610948801</v>
+        <v>-10</v>
       </c>
       <c r="B14" t="n">
-        <v>5.796353504061699</v>
+        <v>5.558161426335573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.276829663664103</v>
+        <v>-9.980523586273193</v>
       </c>
       <c r="B15" t="n">
-        <v>5.497735604643822</v>
+        <v>5.288462091237307</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.563079122453928</v>
+        <v>-10</v>
       </c>
       <c r="B16" t="n">
-        <v>5.200409188866615</v>
+        <v>5.040793407708406</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.817232105880976</v>
+        <v>-10</v>
       </c>
       <c r="B17" t="n">
-        <v>4.900652512907982</v>
+        <v>4.758012373000383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.117200586944818</v>
+        <v>-9.918566949665546</v>
       </c>
       <c r="B18" t="n">
-        <v>4.600664809346199</v>
+        <v>4.476875174790621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.417193446308374</v>
+        <v>-10</v>
       </c>
       <c r="B19" t="n">
-        <v>4.300751641392708</v>
+        <v>4.181579727679491</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.717191848903894</v>
+        <v>-9.766316577792168</v>
       </c>
       <c r="B20" t="n">
-        <v>4.000759676098824</v>
+        <v>4.057915132492781</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.016805563122034</v>
+        <v>-9.784217838197947</v>
       </c>
       <c r="B21" t="n">
-        <v>3.70299069583416</v>
+        <v>3.771824758499861</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.301162276417017</v>
+        <v>-9.543136019259691</v>
       </c>
       <c r="B22" t="n">
-        <v>3.408438190817833</v>
+        <v>3.554808985441923</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.57927093282342</v>
+        <v>-9.798231262713671</v>
       </c>
       <c r="B23" t="n">
-        <v>3.312187008559704</v>
+        <v>3.293389450758696</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.876370254904032</v>
+        <v>-9.651679608970881</v>
       </c>
       <c r="B24" t="n">
-        <v>3.013223819434643</v>
+        <v>3.017451416701078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.17336792126298</v>
+        <v>-9.482955206185579</v>
       </c>
       <c r="B25" t="n">
-        <v>2.713911913335323</v>
+        <v>2.726623218506575</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.473112408071756</v>
+        <v>-9.215183395892382</v>
       </c>
       <c r="B26" t="n">
-        <v>2.413975141942501</v>
+        <v>2.429460059851408</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.772620085626841</v>
+        <v>-8.922225583344698</v>
       </c>
       <c r="B27" t="n">
-        <v>2.114342443645</v>
+        <v>2.13641719147563</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.072062317281961</v>
+        <v>-8.627979625016451</v>
       </c>
       <c r="B28" t="n">
-        <v>1.819394998252392</v>
+        <v>1.874452900141478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.371772978454828</v>
+        <v>-8.389170709997416</v>
       </c>
       <c r="B29" t="n">
-        <v>1.527363531291485</v>
+        <v>1.687505807727575</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-8.09541455283761</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.52598687633872</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-7.804423842579126</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.578994587063789</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-7.51261192932725</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.765201985836029</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-7.22051865234971</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.92112123966217</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-6.927457127720118</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.731916189193726</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-6.6401725448668</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.438470482826233</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-6.369399730116129</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.326720617711544</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-6.118229482322931</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.16464788466692</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-5.867016676813364</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.220292493700981</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-5.583709094673395</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.021748155355453</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-5.298196468502283</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8978819474577904</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-5.01450389996171</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9734513312578201</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-4.720960859209299</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7251710891723633</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-4.422376845031977</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6194811761379242</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-4.127002540975809</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3447166681289673</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-3.854358348995447</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.08460995554924011</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-3.570108029991388</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.08782440423965454</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-3.27419850602746</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.3311587274074554</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-3.215357132256031</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.5537018328905106</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-2.917808897793293</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.6583977192640305</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-2.645353324711323</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.7564164027571678</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-2.402920641005039</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.9799526557326317</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-2.258418701589108</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-1.182073168456554</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-2.025081820785999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-1.433691821992397</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-1.730731256306171</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-1.696867696940899</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-1.453028149902821</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-1.932523407042027</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-1.181230373680592</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-2.215323872864246</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-0.9682245627045631</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-2.492657341063023</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-0.6935532465577126</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-2.52350689470768</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-0.4298676922917366</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-2.800493523478508</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-0.1391289308667183</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-3.082795783877373</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.1563609763979912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-3.318607449531555</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.3855549618601799</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-3.609447300434113</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.6297101303935051</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-3.90762597322464</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.5713927894830704</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-4.200744271278381</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.7671456336975098</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-4.43029473721981</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.5945108085870743</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-4.716128334403038</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.6186029482632875</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-4.893021389842033</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.6373913232237101</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-4.953216347843409</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.6305525484494865</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-4.922719057649374</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.6965229096822441</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-5.046029899269342</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.7330073895864189</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-5.198313552886248</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.6364670502953231</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-5.41806660965085</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.5557007822208107</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-5.662185478955507</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.4357270332984626</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-5.595389854162931</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.412941827904433</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-5.640389401465654</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.3069799761287868</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-5.778726909309626</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.5216327677480876</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-5.788826195523143</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.4044981892220676</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-5.89826194010675</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.462755914311856</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-5.752107223495841</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.4819040629081428</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-5.92841181717813</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.3850464480929077</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-6.07429856620729</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.4103700420819223</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-6.228845169767737</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.3469034335575998</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-6.433135559782386</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.6353590688668191</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-6.605787446722388</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.9341433248482645</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-6.82743271254003</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.231190552469343</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-7.034561892971396</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.529926200862974</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-7.281110083684325</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.828853031154722</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-7.499674489721656</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2.127573808189481</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-7.657004987820983</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2.420760711189359</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-7.855399331077933</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2.719192167278379</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-7.970430051907897</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3.013601025100797</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-8.063187098130584</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3.312507768627256</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-8.10686213336885</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3.610821624752134</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-8.318595146760345</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3.906702300067991</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-8.581839358434081</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4.196482529398054</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-8.845156317576766</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4.495572497602552</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-8.959068095311522</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4.79412262653932</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-9.14843319915235</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5.086183478590101</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-9.398413410410285</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5.384380479808897</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-9.626621281728148</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5.681794991251081</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-9.712395360693336</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5.976428677793592</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-9.916272362694144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6.265367200132459</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-9.759741356596351</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>6.563552250619978</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-9.641080422326922</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6.832766791339964</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-9.752973174676299</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>7.12752785300836</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-9.906822508201003</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>7.409152438398451</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-9.713751187548041</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>7.701211561914533</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-9.535972973331809</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>7.977954348083586</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-9.696520140394568</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>8.245509286876768</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-9.695470717153512</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>8.539757390972227</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-9.49626254697796</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>8.834025343414396</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-9.669701200327836</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>8.860308847855777</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-9.700395882478915</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>8.993497408460826</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-9.779881149879657</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>8.970069117378443</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-9.800292261294089</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>9.091917655896395</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-9.904053554288112</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>8.90544445021078</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-9.903331217472441</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>9.051747150253505</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-9.768611428444274</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>8.827168814372271</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>8.880287140142173</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>8.851702657993883</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-9.860107123851776</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>9.129708496388048</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-9.938887290656567</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>9.049269651528448</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-9.832540452480316</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>8.988887419458479</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-9.767187029123306</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>8.937315707560629</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-9.620164781808853</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>8.729304780717939</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-9.596402984112501</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>8.987011214252561</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-9.831279125064611</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>9.048224875237793</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-9.820514347404242</v>
       </c>
     </row>
   </sheetData>

--- a/agentpos.xlsx
+++ b/agentpos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,1018 +443,522 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-7.126729771494865</v>
+        <v>-6.72197100520134</v>
       </c>
       <c r="B2" t="n">
-        <v>6.711140632629395</v>
+        <v>6.785008504986763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-7.420799568295479</v>
+        <v>-7.015500128269196</v>
       </c>
       <c r="B3" t="n">
-        <v>6.843861773610115</v>
+        <v>6.488328263163567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-7.469032786786556</v>
+        <v>-7.303414791822433</v>
       </c>
       <c r="B4" t="n">
-        <v>6.857784513384104</v>
+        <v>6.256631851196289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-7.750645779073238</v>
+        <v>-7.597325444221497</v>
       </c>
       <c r="B5" t="n">
-        <v>6.957946818321943</v>
+        <v>6.072114050388336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-8.049360685050488</v>
+        <v>-7.728919893503189</v>
       </c>
       <c r="B6" t="n">
-        <v>7.103062134236097</v>
+        <v>5.807213217020035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-8.341073237359524</v>
+        <v>-7.891211122274399</v>
       </c>
       <c r="B7" t="n">
-        <v>6.990137372165918</v>
+        <v>5.520997375249863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.618995122611523</v>
+        <v>-8.18383651971817</v>
       </c>
       <c r="B8" t="n">
-        <v>6.890509147197008</v>
+        <v>5.223984777927399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.894253335893154</v>
+        <v>-8.299439623951912</v>
       </c>
       <c r="B9" t="n">
-        <v>6.716093350201845</v>
+        <v>4.943879723548889</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-9.165777884423733</v>
+        <v>-8.053268402814865</v>
       </c>
       <c r="B10" t="n">
-        <v>6.553744334727526</v>
+        <v>4.672400504350662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-9.460264943540096</v>
+        <v>-7.778359889984131</v>
       </c>
       <c r="B11" t="n">
-        <v>6.327322218567133</v>
+        <v>4.454183652997017</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-9.758926831185818</v>
+        <v>-7.547207713127136</v>
       </c>
       <c r="B12" t="n">
-        <v>6.052948419004679</v>
+        <v>4.192630842328072</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-10</v>
+        <v>-7.266461789608002</v>
       </c>
       <c r="B13" t="n">
-        <v>5.777511689811945</v>
+        <v>3.897148385643959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-10</v>
+        <v>-6.998282223939896</v>
       </c>
       <c r="B14" t="n">
-        <v>5.558161426335573</v>
+        <v>3.6188735216856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-9.980523586273193</v>
+        <v>-6.788779452443123</v>
       </c>
       <c r="B15" t="n">
-        <v>5.288462091237307</v>
+        <v>3.323985770344734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-10</v>
+        <v>-6.530569300055504</v>
       </c>
       <c r="B16" t="n">
-        <v>5.040793407708406</v>
+        <v>3.034028217196465</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-10</v>
+        <v>-6.268306955695152</v>
       </c>
       <c r="B17" t="n">
-        <v>4.758012373000383</v>
+        <v>2.765643015503883</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-9.918566949665546</v>
+        <v>-6.086779445409775</v>
       </c>
       <c r="B18" t="n">
-        <v>4.476875174790621</v>
+        <v>2.549723446369171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-10</v>
+        <v>-5.896582141518593</v>
       </c>
       <c r="B19" t="n">
-        <v>4.181579727679491</v>
+        <v>2.270437896251678</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-9.766316577792168</v>
+        <v>-5.78895378112793</v>
       </c>
       <c r="B20" t="n">
-        <v>4.057915132492781</v>
+        <v>2.070833519101143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-9.784217838197947</v>
+        <v>-5.524920165538788</v>
       </c>
       <c r="B21" t="n">
-        <v>3.771824758499861</v>
+        <v>1.818285658955574</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-9.543136019259691</v>
+        <v>-5.229661047458649</v>
       </c>
       <c r="B22" t="n">
-        <v>3.554808985441923</v>
+        <v>1.537106111645699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-9.798231262713671</v>
+        <v>-4.970884591341019</v>
       </c>
       <c r="B23" t="n">
-        <v>3.293389450758696</v>
+        <v>1.272604390978813</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-9.651679608970881</v>
+        <v>-4.715085923671722</v>
       </c>
       <c r="B24" t="n">
-        <v>3.017451416701078</v>
+        <v>0.975461557507515</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-9.482955206185579</v>
+        <v>-4.421451210975647</v>
       </c>
       <c r="B25" t="n">
-        <v>2.726623218506575</v>
+        <v>0.8183643966913223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-9.215183395892382</v>
+        <v>-4.146886199712753</v>
       </c>
       <c r="B26" t="n">
-        <v>2.429460059851408</v>
+        <v>0.607605367898941</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-8.922225583344698</v>
+        <v>-3.867847621440887</v>
       </c>
       <c r="B27" t="n">
-        <v>2.13641719147563</v>
+        <v>0.3869802504777908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-8.627979625016451</v>
+        <v>-3.580690801143646</v>
       </c>
       <c r="B28" t="n">
-        <v>1.874452900141478</v>
+        <v>0.3974017417058349</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-8.389170709997416</v>
+        <v>-3.32297345995903</v>
       </c>
       <c r="B29" t="n">
-        <v>1.687505807727575</v>
+        <v>0.2952123647555709</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-8.09541455283761</v>
+        <v>-3.073389828205109</v>
       </c>
       <c r="B30" t="n">
-        <v>1.52598687633872</v>
+        <v>0.08092611189931631</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-7.804423842579126</v>
+        <v>-2.780019670724869</v>
       </c>
       <c r="B31" t="n">
-        <v>1.578994587063789</v>
+        <v>-0.04533163551241159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-7.51261192932725</v>
+        <v>-2.492463618516922</v>
       </c>
       <c r="B32" t="n">
-        <v>1.765201985836029</v>
+        <v>-0.3142230892553926</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-7.22051865234971</v>
+        <v>-2.201315760612488</v>
       </c>
       <c r="B33" t="n">
-        <v>1.92112123966217</v>
+        <v>-0.4519656831398606</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-6.927457127720118</v>
+        <v>-1.913026243448257</v>
       </c>
       <c r="B34" t="n">
-        <v>1.731916189193726</v>
+        <v>-0.7226220304146409</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-6.6401725448668</v>
+        <v>-1.644905358552933</v>
       </c>
       <c r="B35" t="n">
-        <v>1.438470482826233</v>
+        <v>-0.95751176122576</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-6.369399730116129</v>
+        <v>-1.369316518306732</v>
       </c>
       <c r="B36" t="n">
-        <v>1.326720617711544</v>
+        <v>-1.213396050967276</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-6.118229482322931</v>
+        <v>-1.086581826210022</v>
       </c>
       <c r="B37" t="n">
-        <v>1.16464788466692</v>
+        <v>-1.279163458384573</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-5.867016676813364</v>
+        <v>-0.7997902929782867</v>
       </c>
       <c r="B38" t="n">
-        <v>1.220292493700981</v>
+        <v>-1.364678063429892</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-5.583709094673395</v>
+        <v>-0.510458916425705</v>
       </c>
       <c r="B39" t="n">
-        <v>1.021748155355453</v>
+        <v>-1.570060499943793</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-5.298196468502283</v>
+        <v>-0.2982341647148132</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8978819474577904</v>
+        <v>-1.785163545049727</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-5.01450389996171</v>
+        <v>-0.01491695642471313</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9734513312578201</v>
+        <v>-1.680275292135775</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-4.720960859209299</v>
+        <v>0.2761565148830414</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7251710891723633</v>
+        <v>-1.97615245077759</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-4.422376845031977</v>
+        <v>0.568330705165863</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6194811761379242</v>
+        <v>-2.268767804838717</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-4.127002540975809</v>
+        <v>0.8364464044570923</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3447166681289673</v>
+        <v>-2.56730327103287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-3.854358348995447</v>
+        <v>1.126703858375549</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08460995554924011</v>
+        <v>-2.861867875792086</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-3.570108029991388</v>
+        <v>1.407968819141388</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.08782440423965454</v>
+        <v>-3.150862188078463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-3.27419850602746</v>
+        <v>1.702061593532562</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.3311587274074554</v>
+        <v>-3.399202943779528</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-3.215357132256031</v>
+        <v>1.999600827693939</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5537018328905106</v>
+        <v>-3.686967522837222</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-2.917808897793293</v>
+        <v>2.28834730386734</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6583977192640305</v>
+        <v>-3.94991669151932</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-2.645353324711323</v>
+        <v>2.584703773260117</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.7564164027571678</v>
+        <v>-4.231177211739123</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-2.402920641005039</v>
+        <v>2.877370119094849</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.9799526557326317</v>
+        <v>-4.49821397755295</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-2.258418701589108</v>
+        <v>3.159718900918961</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.182073168456554</v>
+        <v>-4.784684867598116</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-2.025081820785999</v>
+        <v>3.448421657085419</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.433691821992397</v>
+        <v>-5.056027294136584</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1.730731256306171</v>
+        <v>3.741597473621368</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.696867696940899</v>
+        <v>-5.332440466620028</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.453028149902821</v>
+        <v>4.036536991596222</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.932523407042027</v>
+        <v>-5.605916739441454</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-1.181230373680592</v>
+        <v>4.333307772874832</v>
       </c>
       <c r="B56" t="n">
-        <v>-2.215323872864246</v>
+        <v>-5.896419496275485</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9682245627045631</v>
+        <v>4.629089266061783</v>
       </c>
       <c r="B57" t="n">
-        <v>-2.492657341063023</v>
+        <v>-6.111349628306925</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.6935532465577126</v>
+        <v>4.911862999200821</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.52350689470768</v>
+        <v>-6.40506483707577</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.4298676922917366</v>
+        <v>5.198818743228912</v>
       </c>
       <c r="B59" t="n">
-        <v>-2.800493523478508</v>
+        <v>-6.675718591548502</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.1391289308667183</v>
+        <v>5.490164220333099</v>
       </c>
       <c r="B60" t="n">
-        <v>-3.082795783877373</v>
+        <v>-6.961133585311472</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1563609763979912</v>
+        <v>5.783073246479034</v>
       </c>
       <c r="B61" t="n">
-        <v>-3.318607449531555</v>
+        <v>-7.252556488849223</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.3855549618601799</v>
+        <v>6.081132560968399</v>
       </c>
       <c r="B62" t="n">
-        <v>-3.609447300434113</v>
+        <v>-7.531762109138072</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.6297101303935051</v>
+        <v>6.355825692415237</v>
       </c>
       <c r="B63" t="n">
-        <v>-3.90762597322464</v>
+        <v>-7.652884879149497</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5713927894830704</v>
+        <v>6.651226431131363</v>
       </c>
       <c r="B64" t="n">
-        <v>-4.200744271278381</v>
+        <v>-7.761396975256503</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.7671456336975098</v>
+        <v>6.947979122400284</v>
       </c>
       <c r="B65" t="n">
-        <v>-4.43029473721981</v>
+        <v>-7.99421934876591</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.5945108085870743</v>
+        <v>7.241640239953995</v>
       </c>
       <c r="B66" t="n">
-        <v>-4.716128334403038</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0.6186029482632875</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-4.893021389842033</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0.6373913232237101</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-4.953216347843409</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.6305525484494865</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-4.922719057649374</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0.6965229096822441</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-5.046029899269342</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0.7330073895864189</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-5.198313552886248</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0.6364670502953231</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-5.41806660965085</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0.5557007822208107</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-5.662185478955507</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0.4357270332984626</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-5.595389854162931</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0.412941827904433</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-5.640389401465654</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0.3069799761287868</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-5.778726909309626</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0.5216327677480876</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-5.788826195523143</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0.4044981892220676</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-5.89826194010675</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>0.462755914311856</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-5.752107223495841</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>0.4819040629081428</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-5.92841181717813</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>0.3850464480929077</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-6.07429856620729</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>0.4103700420819223</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-6.228845169767737</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>0.3469034335575998</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-6.433135559782386</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0.6353590688668191</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-6.605787446722388</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0.9341433248482645</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-6.82743271254003</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1.231190552469343</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-7.034561892971396</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1.529926200862974</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-7.281110083684325</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1.828853031154722</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-7.499674489721656</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2.127573808189481</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-7.657004987820983</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2.420760711189359</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-7.855399331077933</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2.719192167278379</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-7.970430051907897</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3.013601025100797</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-8.063187098130584</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3.312507768627256</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-8.10686213336885</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3.610821624752134</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-8.318595146760345</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3.906702300067991</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-8.581839358434081</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>4.196482529398054</v>
-      </c>
-      <c r="B96" t="n">
-        <v>-8.845156317576766</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>4.495572497602552</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-8.959068095311522</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>4.79412262653932</v>
-      </c>
-      <c r="B98" t="n">
-        <v>-9.14843319915235</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>5.086183478590101</v>
-      </c>
-      <c r="B99" t="n">
-        <v>-9.398413410410285</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>5.384380479808897</v>
-      </c>
-      <c r="B100" t="n">
-        <v>-9.626621281728148</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>5.681794991251081</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-9.712395360693336</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>5.976428677793592</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-9.916272362694144</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>6.265367200132459</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-9.759741356596351</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>6.563552250619978</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-9.641080422326922</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>6.832766791339964</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-9.752973174676299</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>7.12752785300836</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-9.906822508201003</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>7.409152438398451</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-9.713751187548041</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>7.701211561914533</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-9.535972973331809</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>7.977954348083586</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-9.696520140394568</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>8.245509286876768</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-9.695470717153512</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>8.539757390972227</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-9.49626254697796</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>8.834025343414396</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-9.669701200327836</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>8.860308847855777</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-9.700395882478915</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>8.993497408460826</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-9.779881149879657</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>8.970069117378443</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-9.800292261294089</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>9.091917655896395</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-9.904053554288112</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>8.90544445021078</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-9.903331217472441</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>9.051747150253505</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-9.768611428444274</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>8.827168814372271</v>
-      </c>
-      <c r="B119" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>8.880287140142173</v>
-      </c>
-      <c r="B120" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>8.851702657993883</v>
-      </c>
-      <c r="B121" t="n">
-        <v>-9.860107123851776</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>9.129708496388048</v>
-      </c>
-      <c r="B122" t="n">
-        <v>-9.938887290656567</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>9.049269651528448</v>
-      </c>
-      <c r="B123" t="n">
-        <v>-9.832540452480316</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>8.988887419458479</v>
-      </c>
-      <c r="B124" t="n">
-        <v>-9.767187029123306</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>8.937315707560629</v>
-      </c>
-      <c r="B125" t="n">
-        <v>-9.620164781808853</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>8.729304780717939</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-9.596402984112501</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>8.987011214252561</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-9.831279125064611</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>9.048224875237793</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-9.820514347404242</v>
+        <v>-7.992379925563</v>
       </c>
     </row>
   </sheetData>
